--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.6898954703832753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4418604651162791</v>
+        <v>0.9209302325581395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.7888446215139443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5044889129259059</v>
+        <v>0.8328285559762032</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3940520446096654</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4930232558139535</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4380165289256198</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2626933477555435</v>
+        <v>0.7657760951865874</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4325581395348837</v>
+        <v>0.7348837209302326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4227272727272728</v>
+        <v>0.7400468384074942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3369821525148729</v>
+        <v>0.8080908599242835</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3766816143497758</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3906976744186046</v>
+        <v>0.6883720930232559</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3835616438356165</v>
+        <v>0.8065395095367848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3525581395348837</v>
+        <v>0.9039480800432668</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5907172995780591</v>
+        <v>0.6139705882352942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.7767441860465116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6194690265486725</v>
+        <v>0.6858316221765914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6558788534342889</v>
+        <v>0.8097133585722012</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.447639785203435</v>
+        <v>0.7253213745836942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.481860465116279</v>
+        <v>0.7730232558139536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4632310848836267</v>
+        <v>0.7375858516602962</v>
       </c>
       <c r="E7" t="n">
-        <v>0.422520281233099</v>
+        <v>0.8240713899405083</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6898954703832753</v>
+        <v>0.5775193798449613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9209302325581395</v>
+        <v>0.7602040816326531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7888446215139443</v>
+        <v>0.6563876651982379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8328285559762032</v>
+        <v>0.5900313971742543</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.6474820143884892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7657760951865874</v>
+        <v>0.6448194662480377</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.7068273092369478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7348837209302326</v>
+        <v>0.9025641025641026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7400468384074942</v>
+        <v>0.7927927927927928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8080908599242835</v>
+        <v>0.751229722658294</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.7706422018348624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6883720930232559</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8065395095367848</v>
+        <v>0.8135593220338984</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9039480800432668</v>
+        <v>0.8032182103610674</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6139705882352942</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7767441860465116</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6858316221765914</v>
+        <v>0.8854961832061069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8097133585722012</v>
+        <v>0.921025641025641</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7253213745836942</v>
+        <v>0.716251756818628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7730232558139536</v>
+        <v>0.8669963369963372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7375858516602962</v>
+        <v>0.7815459268234224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8240713899405083</v>
+        <v>0.7420648874934589</v>
       </c>
     </row>
   </sheetData>
